--- a/biology/Zoologie/Albulidae/Albulidae.xlsx
+++ b/biology/Zoologie/Albulidae/Albulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Albulidae forment une famille de poissons, la seule actuelle de l'ordre des Albuliformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (30 janvier 2024)[1], FishBase                                            (30 janvier 2024)[2] et ECoF[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (30 janvier 2024), FishBase                                            (30 janvier 2024) et ECoF :
 Sous-famille Albulinae Bleeker, 1849
 genre Albula Scopoli, 1777
 Albula argentea  (Forster, 1801)
@@ -559,9 +573,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(nl + la) Bleeker, P., Bijdrage tot de kennis der ichthyologische fauna van het eiland Madura: met beschrijving van eenige nieuwe soorten, vol. 22, Batavia, Egbert Heemen, coll. « Verhandelingen van het Bataviaasch Genootschap van Kunsten en Wetenschappen. v. 22 [8] », 1849, 16 p. (lire en ligne)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(nl + la) Bleeker, P., Bijdrage tot de kennis der ichthyologische fauna van het eiland Madura: met beschrijving van eenige nieuwe soorten, vol. 22, Batavia, Egbert Heemen, coll. « Verhandelingen van het Bataviaasch Genootschap van Kunsten en Wetenschappen. v. 22  », 1849, 16 p. (lire en ligne)
 </t>
         </is>
       </c>
